--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1456200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1418700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1328700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1436700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1396700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1404800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1336300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1375200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1385700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1304100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1445000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1397400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1144300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1117300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1038600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1124200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1097200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1109700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1052700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1110800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1080500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1070000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1005100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1109500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1067700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E10" s="3">
         <v>301500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>290100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>312500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>299500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>295100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>283600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>289800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>315700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>299000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>335500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>329700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1412300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1436900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1312000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1390100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1351400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1363500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1331800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1359400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1325200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1314000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1247300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1348900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1350900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>69200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>66500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>63600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>79400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11400</v>
       </c>
       <c r="O22" s="3">
         <v>11400</v>
       </c>
       <c r="P22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>6400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,41 +1646,44 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>77300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E41" s="3">
         <v>129600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>165500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>99800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2145,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>451300</v>
+      </c>
+      <c r="E43" s="3">
         <v>581300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>502700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>582100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>547200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>571200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>520600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>826900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>863500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>849200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>841300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>884800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>810200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>866300</v>
+      </c>
+      <c r="E44" s="3">
         <v>787400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>809600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>761000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>845800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>792500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>845500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>779800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>882000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>796400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>777400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>711900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>827100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>268900</v>
+      </c>
+      <c r="E45" s="3">
         <v>189200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>160600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>165600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>169200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>176000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>184000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>116300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>97700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1692700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1687400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1582700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1604400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1679700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1705300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1641500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1772700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1979800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1843600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1816100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1803600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1871200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E47" s="3">
         <v>95900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>113100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>96900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>86500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>135200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>88400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>391200</v>
+        <v>390000</v>
       </c>
       <c r="E48" s="3">
         <v>391200</v>
       </c>
       <c r="F48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="G48" s="3">
         <v>305800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>290300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>289600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>289700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>290600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>287400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>286700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>294800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>298500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1140300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1148800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1156500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1167400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1174500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1182500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1193100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1205400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1216400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1220900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1230700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1239000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1247500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E52" s="3">
         <v>112100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3513600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3435500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3349600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3269300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3320500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3344300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3287800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3471700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3674400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3528500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3495200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3507900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3594100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>802600</v>
+      </c>
+      <c r="E57" s="3">
         <v>766500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>625400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>648400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>688100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>662700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>588000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>610400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>654800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>634600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>536000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>616900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>547700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>25800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>80300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>110400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>92600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>253800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>106800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>177800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>73800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>212800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E59" s="3">
         <v>294900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>223000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>193400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>225900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>218800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>205400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>209300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>188300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>213300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>228000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1201500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1061400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>874200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>875700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>932700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>968900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>917300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>908400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>950600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>902100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>903900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>988500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>587500</v>
+      </c>
+      <c r="E61" s="3">
         <v>663500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>718100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>725300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>732600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>738300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>743700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>922000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>931400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>991200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>998500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>998300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1001800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E62" s="3">
         <v>251900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>253900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>187700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>182500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>181300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>179600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>179500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>179900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>210200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>211300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>217800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2044100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1979600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1849300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1792000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1851400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1892300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1844600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2009900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2211400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2161500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2110700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2113500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2208000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1433200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1434800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1492800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1483500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1480100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1473400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1469000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1497800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1501000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1429700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1450200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1481200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1482600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1469400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1455800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1477300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1469100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1452000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1443100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1461800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1463000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1366900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1384500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1394400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1386100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,40 +3839,43 @@
         <v>20600</v>
       </c>
       <c r="F83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="G83" s="3">
         <v>20300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>21000</v>
       </c>
       <c r="K83" s="3">
         <v>21000</v>
       </c>
       <c r="L83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-154300</v>
+      </c>
+      <c r="E89" s="3">
         <v>30600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-123900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>205500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>138900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>123100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-46000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>175400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E94" s="3">
         <v>92700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>96800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>63200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>131200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>138800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4391,46 @@
         <v>-25000</v>
       </c>
       <c r="E96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-25500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-183800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-188200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>50100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>43200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-206200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E102" s="3">
         <v>19800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>74000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-55000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E7" s="2">
         <v>43855</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43764</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43673</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1286500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1456200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1418700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1328700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1436700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1396700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1404800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1336300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1375200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1385700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1304100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1445000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1397400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>992400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1144300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1117300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1038600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1124200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1097200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1109700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1052700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1110800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1080500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1070000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1005100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1109500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1067700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E10" s="3">
         <v>311900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>301500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>290100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>312500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>299500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>295100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>283600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>289800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>315700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>299000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>335500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>329700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>675100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1412300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1436900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1312000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1390100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1351400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1363500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1331800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1359400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1325200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1314000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1247300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1348900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1350900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-614400</v>
+      </c>
+      <c r="E18" s="3">
         <v>43900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-605200</v>
+      </c>
+      <c r="E21" s="3">
         <v>66700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>69200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>66500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>63600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E22" s="3">
         <v>16600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11400</v>
       </c>
       <c r="P22" s="3">
         <v>11400</v>
       </c>
       <c r="Q22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-632900</v>
+      </c>
+      <c r="E23" s="3">
         <v>29500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-608800</v>
+      </c>
+      <c r="E26" s="3">
         <v>23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-608600</v>
+      </c>
+      <c r="E27" s="3">
         <v>23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,41 +1709,44 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>77300</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-608600</v>
+      </c>
+      <c r="E33" s="3">
         <v>23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-608600</v>
+      </c>
+      <c r="E35" s="3">
         <v>23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E38" s="2">
         <v>43855</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43764</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43673</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E41" s="3">
         <v>106200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>165500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>416500</v>
+      </c>
+      <c r="E43" s="3">
         <v>451300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>581300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>502700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>582100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>547200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>571200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>520600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>826900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>863500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>849200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>841300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>884800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>810200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>812200</v>
+      </c>
+      <c r="E44" s="3">
         <v>866300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>787400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>809600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>761000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>845800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>792500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>845500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>779800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>882000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>796400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>777400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>711900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>827100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E45" s="3">
         <v>268900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>189200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>160600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>165600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>169200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>176000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>97700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1542800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1692700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1687400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1582700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1604400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1679700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1705300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1641500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1772700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1979800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1843600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1816100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1803600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1871200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E47" s="3">
         <v>172200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>95900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>113100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>96900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>86500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>135200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>121700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>101500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E48" s="3">
         <v>390000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>391200</v>
       </c>
       <c r="F48" s="3">
         <v>391200</v>
       </c>
       <c r="G48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="H48" s="3">
         <v>305800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>290300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>289600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>289700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>290600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>286700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>294800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>298500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>452200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1140300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1148800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1156500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1167400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1174500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1182500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1193100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1205400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1216400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1220900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1230700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1239000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1247500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E52" s="3">
         <v>118300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>112100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2715400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3513600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3435500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3349600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3269300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3320500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3344300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3287800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3471700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3674400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3528500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3495200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3507900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3594100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>862100</v>
+      </c>
+      <c r="E57" s="3">
         <v>802600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>766500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>625400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>648400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>688100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>662700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>588000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>610400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>654800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>634600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>536000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>616900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>547700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>95000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>25800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>51100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>80300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>110400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>253800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>106800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>177800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>73800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>212800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E59" s="3">
         <v>303800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>294900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>223000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>193400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>225900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>218800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>209300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>188300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>213300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>228000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1201500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1061400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>874200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>875700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>932700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>968900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>917300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>908400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>950600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>902100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>903900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>988500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>587800</v>
+      </c>
+      <c r="E61" s="3">
         <v>587500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>663500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>718100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>725300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>732600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>738300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>743700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>922000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>931400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>991200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>998500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>998300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1001800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E62" s="3">
         <v>252700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>251900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>253900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>187700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>182500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>181300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>179600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>179500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>179900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>210200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>211300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>217800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1881200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2044100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1979600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1849300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1792000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1851400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1892300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1844600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2009900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2211400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2161500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2110700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2113500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2208000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>799700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1433200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1434800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1492800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1483500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1480100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1473400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1469000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1497800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1501000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1429700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1450200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1481200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1482600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>834100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1469400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1455800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1477300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1469100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1452000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1443100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1461800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1463000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1366900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1384500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1394400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1386100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43946</v>
+      </c>
+      <c r="E80" s="2">
         <v>43855</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43764</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43673</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-608600</v>
+      </c>
+      <c r="E81" s="3">
         <v>23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="E83" s="3">
         <v>20600</v>
@@ -3842,40 +4040,43 @@
         <v>20600</v>
       </c>
       <c r="G83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="H83" s="3">
         <v>20300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>21000</v>
       </c>
       <c r="L83" s="3">
         <v>21000</v>
       </c>
       <c r="M83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N83" s="3">
         <v>20700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-154300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-123900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>205500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>123100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-46000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>175400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E94" s="3">
         <v>137000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>92700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>96800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>63200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>131200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>138800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25000</v>
+        <v>-24900</v>
       </c>
       <c r="E96" s="3">
         <v>-25000</v>
       </c>
       <c r="F96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-25500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-105500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-56800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-183800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-188200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-135200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>43200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-206200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>74000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E7" s="2">
         <v>43946</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43855</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1245800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1286500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1456200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1418700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1328700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1436700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1396700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1404800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1336300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1375200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1385700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1304100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1397400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>992000</v>
+      </c>
+      <c r="E9" s="3">
         <v>992400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1144300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1117300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1038600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1124200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1097200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1109700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1052700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1110800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1080500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1070000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1005100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1109500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1067700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E10" s="3">
         <v>294100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>311900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>301500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>290100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>312500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>299500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>295100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>283600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>289800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>294700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>315700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>299000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>335500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>329700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>675100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1208000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1412300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1436900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1312000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1390100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1351400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1363500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1331800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1359400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1325200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1314000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1247300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1348900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1350900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-614400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-605200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>66700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>69200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>63600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>93600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>79400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>118000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11400</v>
       </c>
       <c r="Q22" s="3">
         <v>11400</v>
       </c>
       <c r="R22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-632900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>85800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-608800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-608600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,41 +1773,44 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>2700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>77300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-608600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-608600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E38" s="2">
         <v>43946</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43855</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E41" s="3">
         <v>77900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>165500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>118000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372300</v>
+      </c>
+      <c r="E43" s="3">
         <v>416500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>451300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>581300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>502700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>582100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>547200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>571200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>520600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>826900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>863500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>849200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>841300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>884800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>810200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700500</v>
+      </c>
+      <c r="E44" s="3">
         <v>812200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>866300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>787400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>809600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>761000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>845800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>792500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>845500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>779800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>882000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>796400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>777400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>711900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>827100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E45" s="3">
         <v>236100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>268900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>189200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>160600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>165600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>169200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>176000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>184000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>97700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1460100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1542800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1692700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1687400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1582700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1604400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1679700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1705300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1641500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1772700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1979800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1843600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1816100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1803600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1871200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E47" s="3">
         <v>214900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>172200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>95900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>113100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>96900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>86500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>135200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>121700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>101500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E48" s="3">
         <v>382700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>390000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>391200</v>
       </c>
       <c r="G48" s="3">
         <v>391200</v>
       </c>
       <c r="H48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="I48" s="3">
         <v>305800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>290300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>289600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>289700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>290600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>287400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>286700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>294800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>298500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>444200</v>
+      </c>
+      <c r="E49" s="3">
         <v>452200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1140300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1148800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1156500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1167400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1174500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1182500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1193100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1205400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1216400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1220900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1230700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1239000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1247500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2819,52 @@
         <v>122700</v>
       </c>
       <c r="E52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="F52" s="3">
         <v>118300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>112100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>79200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2646200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2715400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3513600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3435500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3349600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3269300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3320500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3344300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3287800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3471700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3674400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3528500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3495200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3507900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3594100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>549700</v>
+      </c>
+      <c r="E57" s="3">
         <v>862100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>802600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>766500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>625400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>648400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>688100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>662700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>588000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>610400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>654800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>634600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>536000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>616900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>547700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>136000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>95000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>25800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>51100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>80300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>110400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>253800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>106800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>177800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>73800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>212800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>293100</v>
+      </c>
+      <c r="E59" s="3">
         <v>212800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>303800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>294900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>223000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>203300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>193400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>225900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>209300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>213300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>228000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>978800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1074900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1201500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1061400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>874200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>875700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>932700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>968900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>917300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>908400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>950600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>902100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>903900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>988500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E61" s="3">
         <v>587800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>587500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>663500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>718100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>725300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>732600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>738300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>743700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>922000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>931400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>991200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>998500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>998300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1001800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E62" s="3">
         <v>216200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>252700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>251900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>253900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>187700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>182500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>181300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>179600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>179500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>179900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>219700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>210200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>211300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>217800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1793600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1881200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2044100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1979600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1849300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1792000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1851400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1892300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1844600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2009900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2211400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2161500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2110700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2113500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2208000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>799600</v>
+      </c>
+      <c r="E72" s="3">
         <v>799700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1433200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1434800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1492800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1483500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1480100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1473400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1469000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1497800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1501000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1429700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1450200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1481200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1482600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>852600</v>
+      </c>
+      <c r="E76" s="3">
         <v>834100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1469400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1455800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1500400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1477300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1469100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1452000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1443100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1461800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1463000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1366900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1384500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1394400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1386100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E80" s="2">
         <v>43946</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43855</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-608600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E83" s="3">
         <v>20300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>20600</v>
       </c>
       <c r="F83" s="3">
         <v>20600</v>
@@ -4043,40 +4242,43 @@
         <v>20600</v>
       </c>
       <c r="H83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I83" s="3">
         <v>20300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>21000</v>
       </c>
       <c r="M83" s="3">
         <v>21000</v>
       </c>
       <c r="N83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="O83" s="3">
         <v>20700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-154300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-123900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>205500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>123100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-46000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>175400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E94" s="3">
         <v>172700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>137000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>92700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>96800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>63200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>131200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>138800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-25000</v>
       </c>
       <c r="F96" s="3">
         <v>-25000</v>
       </c>
       <c r="G96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-25500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-25300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-123200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-105500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-56800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-58900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-183800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-188200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-135200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>43200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-206200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-55000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F7" s="2">
         <v>44037</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43946</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43855</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1551300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1553200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1245800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1286500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1456200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1418700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1328700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1436700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1396700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1404800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1336300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1400600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1375200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1385700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1304100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1445000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1397400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1226700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1232800</v>
+      </c>
+      <c r="F9" s="3">
         <v>992000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>992400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1144300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1117300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1038600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1124200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1097200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1109700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1052700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1110800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1080500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1070000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1005100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1109500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1067700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>324600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>320400</v>
+      </c>
+      <c r="F10" s="3">
         <v>253800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>294100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>311900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>301500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>290100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>312500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>299500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>295100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>283600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>289800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>294700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>315700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>299000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>335500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>329700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1062,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>675100</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>675100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1057,11 +1097,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1479500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1208000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1900900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1412300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1436900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1312000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1390100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1351400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1363500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1331800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1359400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1325200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1314000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1247300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1348900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1350900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>73700</v>
+      </c>
+      <c r="F18" s="3">
         <v>37800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-614400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>43900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>45300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>41300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>41200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>50000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>71700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>56800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>96100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>46500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>31900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F21" s="3">
         <v>59800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-605200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>66700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>69200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>66500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>67300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>68200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>63600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>73100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>93600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>79400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>118000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>68600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F22" s="3">
         <v>6700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>70500</v>
+      </c>
+      <c r="F23" s="3">
         <v>33200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-632900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>29500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>36400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>37600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>40400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>61500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>47100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>85800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>36100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-24100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-608800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>23000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-33300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>28400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>28600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>21500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>31700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>30800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>61400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>27800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F27" s="3">
         <v>24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-608600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-33100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>28000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>21500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>31700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>40200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>30800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>61400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>27800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,41 +1898,47 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2700</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>77300</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-3200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-31900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F33" s="3">
         <v>24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-608600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-33100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>31200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>20900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>109000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>40200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>30800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>61700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>24500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F35" s="3">
         <v>24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-608600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-33100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>31200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>20900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>109000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>40200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>30800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>61700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>24500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F38" s="2">
         <v>44037</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43946</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43855</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139500</v>
+      </c>
+      <c r="F41" s="3">
         <v>119600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>77900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>106200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>129600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>109800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>95600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>165500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>91500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>63000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>118000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>101500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>99800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>95000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>121700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2513,427 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>456100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>491700</v>
+      </c>
+      <c r="F43" s="3">
         <v>372300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>416500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>451300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>581300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>502700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>582100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>547200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>571200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>520600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>826900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>863500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>849200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>841300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>884800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>810200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>761900</v>
+      </c>
+      <c r="F44" s="3">
         <v>700500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>812200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>866300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>787400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>809600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>761000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>845800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>792500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>845500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>779800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>882000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>796400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>777400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>711900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>827100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>263100</v>
+      </c>
+      <c r="F45" s="3">
         <v>267700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>236100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>268900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>189200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>160600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>165600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>169200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>176000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>184000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>116300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>96600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>97700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>111900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>112300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1723200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1656300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1460100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1542800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1692700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1687400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1582700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1604400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1679700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1705300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1641500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1772700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1979800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1843600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1816100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1803600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1871200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>193800</v>
+      </c>
+      <c r="F47" s="3">
         <v>241600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>214900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>172200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>95900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>102200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>113100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>96900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>86500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>91000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>135200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>121700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>111200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>88400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>101500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>107500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>379600</v>
+      </c>
+      <c r="F48" s="3">
         <v>377600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>382700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>390000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>391200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>391200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>305800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>290300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>289600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>289700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>290600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>287400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>286700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>294800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>298500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>428200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>435700</v>
+      </c>
+      <c r="F49" s="3">
         <v>444200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>452200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1140300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1148800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1156500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1167400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1174500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1182500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1193100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1205400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1216400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1220900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1230700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1239000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1247500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>123600</v>
+      </c>
+      <c r="F52" s="3">
         <v>122700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>122700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>118300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>112100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>117000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>78700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>79200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>80300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>72500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>67800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>66100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>65400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>67500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2851000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2789000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2646200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2715400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3513600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3435500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3349600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3269300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3320500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3344300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3287800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3471700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3674400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3528500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3495200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3507900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3594100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>677100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>690800</v>
+      </c>
+      <c r="F57" s="3">
         <v>549700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>862100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>802600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>766500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>625400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>648400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>688100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>662700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>588000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>610400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>654800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>634600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>536000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>616900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>547700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>111000</v>
+      </c>
+      <c r="F58" s="3">
         <v>136000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>95000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>25800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>51100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>80300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>110400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>92600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>253800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>106800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>177800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>73800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>212800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>315100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F59" s="3">
         <v>293100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>212800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>303800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>294900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>223000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>203300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>193400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>225900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>218800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>205400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>191500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>209300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>188300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>213300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>228000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1072900</v>
+      </c>
+      <c r="F60" s="3">
         <v>978800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1074900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1201500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1061400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>874200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>875700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>932700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>968900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>917300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>908400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>950600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>902100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>903900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>988500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>487900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>588300</v>
+      </c>
+      <c r="F61" s="3">
         <v>588000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>587800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>587500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>663500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>718100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>725300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>732600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>738300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>743700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>922000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>931400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>991200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>998500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>998300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1001800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>235100</v>
+      </c>
+      <c r="F62" s="3">
         <v>224700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>216200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>252700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>251900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>253900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>187700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>182500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>181300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>179600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>179500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>179900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>219700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>210200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>211300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>217800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1918100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1898200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1793600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1881200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2044100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1979600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1849300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1792000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1851400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1892300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1844600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2009900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2211400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2161500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2110700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2113500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2208000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>852200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>828700</v>
+      </c>
+      <c r="F72" s="3">
         <v>799600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>799700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1433200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1434800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1492800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1483500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1480100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1473400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1469000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1497800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1501000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1429700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1450200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1481200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1482600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>932900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>890800</v>
+      </c>
+      <c r="F76" s="3">
         <v>852600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>834100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1469400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1455800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1500400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1477300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1469100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1452000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1443100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1461800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1463000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1366900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1384500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1394400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1386100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44128</v>
+      </c>
+      <c r="F80" s="2">
         <v>44037</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43946</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43855</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F81" s="3">
         <v>24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-608600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-33100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>31200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>20900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>109000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>40200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>30800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>61700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>24500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F83" s="3">
         <v>19900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>20600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>20600</v>
       </c>
       <c r="H83" s="3">
         <v>20600</v>
       </c>
       <c r="I83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K83" s="3">
         <v>20300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>20700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>20800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-181900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-193200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-229800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-74600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-154300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>30600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-45200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-28200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-123900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>205500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>138900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-37100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>123100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>175400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>42700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>261500</v>
+      </c>
+      <c r="F94" s="3">
         <v>133400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>172700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>137000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>92700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>96800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>63200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>131200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>138800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>14300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>2800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5315,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-25100</v>
       </c>
       <c r="E96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-24900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-25000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-25000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-25500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-24800</v>
       </c>
       <c r="K96" s="3">
         <v>-24700</v>
       </c>
       <c r="L96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-25300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-24600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-24700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-24800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-25000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-23300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="F100" s="3">
         <v>135300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-123200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-105500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-36200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-55700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-56800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-58900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-183800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-188200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>50100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-135200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>43200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-206200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-34000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F102" s="3">
         <v>41600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-23400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-21800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>74000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>28500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>16500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-26800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E7" s="2">
         <v>44219</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44037</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43946</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43673</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1561800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1551300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1553200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1245800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1286500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1456200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1418700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1328700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1436700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1396700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1404800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1336300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1375200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1385700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1304100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1445000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1397400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1257400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1226700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1232800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>992000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>992400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1144300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1117300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1038600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1124200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1097200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1109700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1052700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1110800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1080500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1070000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1005100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1109500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1067700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E10" s="3">
         <v>324600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>320400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>253800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>294100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>311900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>301500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>290100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>312500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>299500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>295100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>283600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>289800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>294700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>315700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>299000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>335500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>329700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1084,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1082,11 +1101,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>675100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1103,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1489600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1479500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1208000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1412300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1436900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1312000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1390100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1351400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1363500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1331800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1359400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1325200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1314000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1247300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1348900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1350900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E18" s="3">
         <v>61700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-614400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>56800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>46500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E21" s="3">
         <v>85500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-605200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>69200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>66500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>93600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>118000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>68600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>5500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11400</v>
       </c>
       <c r="T22" s="3">
         <v>11400</v>
       </c>
       <c r="U22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="V22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E23" s="3">
         <v>60500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>70500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-632900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>85800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>11900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-24100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>48600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-608800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>48800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>54100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-608600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,41 +1964,44 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>77300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E33" s="3">
         <v>48800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>54100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-608600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>24500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E35" s="3">
         <v>48800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>54100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-608600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>24500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E38" s="2">
         <v>44219</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44128</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44037</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43946</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43673</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E41" s="3">
         <v>156000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>165500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>118000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>99800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>95000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>449200</v>
+      </c>
+      <c r="E43" s="3">
         <v>456100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>491700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>372300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>416500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>451300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>581300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>502700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>582100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>547200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>571200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>520600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>826900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>863500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>849200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>841300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>884800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>810200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>736800</v>
+      </c>
+      <c r="E44" s="3">
         <v>838000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>761900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>812200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>866300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>787400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>809600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>761000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>845800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>792500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>845500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>779800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>882000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>796400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>777400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>711900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>827100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E45" s="3">
         <v>273100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>263100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>267700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>236100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>268900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>189200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>160600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>165600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>176000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>96600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>97700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>111900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1615900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1723200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1656300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1460100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1542800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1692700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1687400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1582700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1604400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1679700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1705300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1641500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1772700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1979800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1843600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1816100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1803600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1871200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E47" s="3">
         <v>199400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>193800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>241600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>214900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>172200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>95900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>96900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>135200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>121700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>101500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>296700</v>
+      </c>
+      <c r="E48" s="3">
         <v>304500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>379600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>377600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>382700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>390000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>391200</v>
       </c>
       <c r="J48" s="3">
         <v>391200</v>
       </c>
       <c r="K48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="L48" s="3">
         <v>305800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>290300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>289600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>289700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>290600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>287400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>286700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>294800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>298500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E49" s="3">
         <v>428200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>435700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>444200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>452200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1140300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1148800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1156500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1167400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1174500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1182500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1193100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1205400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1216400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1220900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1230700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1239000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1247500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E52" s="3">
         <v>195700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>122700</v>
       </c>
       <c r="G52" s="3">
         <v>122700</v>
       </c>
       <c r="H52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="I52" s="3">
         <v>118300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>112100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>72500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2751500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2851000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2789000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2646200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2715400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3513600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3435500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3349600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3269300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3320500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3344300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3287800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3471700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3674400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3528500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3495200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3507900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3594100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>609300</v>
+      </c>
+      <c r="E57" s="3">
         <v>677100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>690800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>549700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>862100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>802600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>766500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>625400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>648400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>688100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>662700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>588000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>610400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>654800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>634600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>536000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>616900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>547700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E58" s="3">
         <v>208800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>111000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>136000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>95000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>25800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>80300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>110400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>92600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>253800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>106800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>177800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>73800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>212800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E59" s="3">
         <v>315100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>271100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>293100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>212800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>303800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>294900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>223000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>203300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>193400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>225900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>218800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>191500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>209300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>188300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>213300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>228000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1089700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1072900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>978800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1074900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1201500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1061400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>874200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>875700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>932700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>968900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>917300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>908400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>950600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>902100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>903900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>988500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>487500</v>
+      </c>
+      <c r="E61" s="3">
         <v>487900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>588300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>588000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>587800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>587500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>663500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>718100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>725300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>732600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>738300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>743700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>922000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>931400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>991200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>998500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>998300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1001800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E62" s="3">
         <v>227600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>235100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>224700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>216200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>252700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>251900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>253900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>187700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>182500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>181300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>179600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>179500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>179900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>219700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>210200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>211300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>217800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1918100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1898200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1793600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1881200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2044100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1979600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1849300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1851400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1892300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1844600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2009900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2211400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2161500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2110700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2113500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2208000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>855700</v>
+      </c>
+      <c r="E72" s="3">
         <v>852200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>828700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>799600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>799700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1433200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1434800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1492800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1483500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1480100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1473400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1469000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1497800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1501000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1429700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1450200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1481200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1482600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>963200</v>
+      </c>
+      <c r="E76" s="3">
         <v>932900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>890800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>852600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>834100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1469400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1455800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1477300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1469100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1452000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1443100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1461800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1463000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1366900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1384500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1394400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1386100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E80" s="2">
         <v>44219</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44128</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44037</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43946</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43673</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E81" s="3">
         <v>48800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>54100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-608600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>24500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,25 +4819,26 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>20600</v>
       </c>
       <c r="I83" s="3">
         <v>20600</v>
@@ -4649,40 +4847,43 @@
         <v>20600</v>
       </c>
       <c r="K83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L83" s="3">
         <v>20300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>21000</v>
       </c>
       <c r="P83" s="3">
         <v>21000</v>
       </c>
       <c r="Q83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R83" s="3">
         <v>20700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-125600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-181900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-193200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-229800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-74600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-154300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-123900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>205500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>123100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-46000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>175400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E94" s="3">
         <v>221000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>261500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>133400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>172700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>137000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>92700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>96800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>63200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>131200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>138800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>14300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,58 +5559,61 @@
         <v>-25100</v>
       </c>
       <c r="E96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-25000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-24900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-25000</v>
       </c>
       <c r="I96" s="3">
         <v>-25000</v>
       </c>
       <c r="J96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>135300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-123200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-105500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-183800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-188200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-135200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>43200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-206200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>41600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44310</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44219</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44128</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44037</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43946</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43764</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43673</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1614900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1561800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1551300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1553200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1245800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1286500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1456200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1418700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1328700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1436700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1396700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1404800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1336300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1375200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1385700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1304100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1445000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1397400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1337100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1257400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1226700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1232800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>992000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>992400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1144300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1117300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1038600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1124200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1097200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1109700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1052700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1110800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1080500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1070000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1005100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1109500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1067700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E10" s="3">
         <v>304400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>324600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>320400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>253800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>294100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>311900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>301500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>290100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>312500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>299500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>295100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>283600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>289800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>294700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>315700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>299000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>335500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>329700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1104,11 +1124,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>675100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1654400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1524400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1489600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1479500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1208000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1412300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1436900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1312000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1390100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1351400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1363500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1331800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1359400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1325200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1314000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1247300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1348900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1350900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E18" s="3">
         <v>37400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-614400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>71700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>56800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>46500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E21" s="3">
         <v>61900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>85500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-605200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>66700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>69200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>118000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>68600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>11400</v>
       </c>
       <c r="U22" s="3">
         <v>11400</v>
       </c>
       <c r="V22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="W22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E23" s="3">
         <v>35700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>70500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-632900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>85800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E24" s="3">
         <v>7200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-24100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E26" s="3">
         <v>28500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-608800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>54100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-608600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,41 +2028,44 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>2700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>77300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>54100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-608600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>54100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-608600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44310</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44219</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44128</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44037</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43946</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43764</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43673</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E41" s="3">
         <v>143200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>129600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>165500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>118000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>101500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>99800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>95000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>373500</v>
+      </c>
+      <c r="E43" s="3">
         <v>449200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>456100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>491700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>372300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>416500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>451300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>581300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>502700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>582100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>547200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>571200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>520600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>826900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>863500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>849200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>841300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>884800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>810200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>770400</v>
+      </c>
+      <c r="E44" s="3">
         <v>736800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>838000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>761900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>812200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>866300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>787400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>809600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>761000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>845800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>792500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>845500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>779800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>882000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>796400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>777400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>711900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>827100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>330700</v>
+      </c>
+      <c r="E45" s="3">
         <v>286700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>273100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>263100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>267700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>236100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>268900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>189200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>160600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>165600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>176000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>184000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>96600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>97700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1611500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1615900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1723200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1656300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1460100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1542800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1692700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1687400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1582700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1604400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1679700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1705300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1641500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1772700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1979800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1843600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1816100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1803600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1871200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E47" s="3">
         <v>224000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>199400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>193800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>241600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>214900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>172200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>95900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>91000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>135200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>121700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>88400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>101500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>294700</v>
+      </c>
+      <c r="E48" s="3">
         <v>296700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>379600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>377600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>382700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>390000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>391200</v>
       </c>
       <c r="K48" s="3">
         <v>391200</v>
       </c>
       <c r="L48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="M48" s="3">
         <v>305800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>290300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>289600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>289700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>287400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>286700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>294800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>298500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E49" s="3">
         <v>419600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>428200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>435700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>444200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>452200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1140300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1148800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1156500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1167400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1174500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1182500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1193100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1205400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1216400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1220900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1230700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1239000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1247500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E52" s="3">
         <v>195400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>195700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>123600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>122700</v>
       </c>
       <c r="H52" s="3">
         <v>122700</v>
       </c>
       <c r="I52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="J52" s="3">
         <v>118300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>112100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>72500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>69100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>66100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>67500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2750800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2751500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2851000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2789000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2646200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2715400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3513600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3435500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3349600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3269300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3320500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3344300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3287800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3471700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3674400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3528500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3495200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3507900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3594100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>593100</v>
+      </c>
+      <c r="E57" s="3">
         <v>609300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>677100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>690800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>549700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>862100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>802600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>766500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>625400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>648400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>688100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>662700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>588000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>610400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>654800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>634600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>536000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>616900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>547700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E58" s="3">
         <v>153800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>208800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>111000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>136000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>95000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>25800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>110400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>92600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>253800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>106800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>177800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>73800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>212800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E59" s="3">
         <v>326700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>315100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>271100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>293100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>303800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>294900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>223000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>193400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>225900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>218800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>205400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>191500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>209300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>188300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>213300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>228000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1067900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1089700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1072900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>978800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1074900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1201500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1061400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>874200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>875700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>932700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>968900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>917300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>908400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>950600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>902100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>903900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>988500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>487800</v>
+      </c>
+      <c r="E61" s="3">
         <v>487500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>487900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>588300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>588000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>587800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>587500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>663500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>718100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>725300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>732600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>738300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>743700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>922000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>931400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>991200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>998500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>998300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1001800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E62" s="3">
         <v>209600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>235100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>224700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>216200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>252700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>251900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>253900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>187700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>182500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>179600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>179500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>179900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>219700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>210200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>211300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>217800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1771500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1788300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1918100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1898200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1793600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1881200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2044100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1979600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1849300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1851400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1892300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1844600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2009900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2211400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2161500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2110700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2113500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2208000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>864200</v>
+      </c>
+      <c r="E72" s="3">
         <v>855700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>852200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>828700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>799600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>799700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1433200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1434800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1492800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1483500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1480100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1473400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1469000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1497800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1501000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1429700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1450200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1481200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1482600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>979300</v>
+      </c>
+      <c r="E76" s="3">
         <v>963200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>932900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>890800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>852600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>834100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1469400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1455800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1477300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1469100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1452000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1443100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1461800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1463000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1366900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1384500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1394400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1386100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44310</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44219</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44128</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44037</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43946</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43764</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43673</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>54100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-608600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,19 +5028,19 @@
         <v>20500</v>
       </c>
       <c r="E83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>20600</v>
       </c>
       <c r="J83" s="3">
         <v>20600</v>
@@ -4850,40 +5049,43 @@
         <v>20600</v>
       </c>
       <c r="L83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="M83" s="3">
         <v>20300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>21000</v>
       </c>
       <c r="Q83" s="3">
         <v>21000</v>
       </c>
       <c r="R83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="S83" s="3">
         <v>20700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-313400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-125600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-181900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-193200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-229800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-74600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-154300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-45200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-123900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>205500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>138900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-37100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>123100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-46000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>175400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E94" s="3">
         <v>194800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>221000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>261500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>133400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>172700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>137000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>92700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>96800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>63200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>131200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>138800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>14300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5562,58 +5796,61 @@
         <v>-25100</v>
       </c>
       <c r="F96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-25000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-24900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-25000</v>
       </c>
       <c r="J96" s="3">
         <v>-25000</v>
       </c>
       <c r="K96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-25500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-82700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>135300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-123200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-105500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-183800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-188200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-135200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>43200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-206200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>74000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-26800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44310</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44219</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44128</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44037</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43946</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43855</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43764</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43673</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1596600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1649200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1614900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1561800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1551300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1553200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1245800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1286500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1456200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1418700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1328700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1436700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1396700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1404800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1336300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1400600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1375200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1385700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1304100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1445000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1397400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1337100</v>
+        <v>1260000</v>
       </c>
       <c r="E9" s="3">
+        <v>1322700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="G9" s="3">
         <v>1257400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1226700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1232800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>992000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>992400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1144300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1117300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1038600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1124200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1097200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1109700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1052700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1110800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1080500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1070000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1005100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1109500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1067700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>277800</v>
+        <v>336600</v>
       </c>
       <c r="E10" s="3">
+        <v>326500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>327000</v>
+      </c>
+      <c r="G10" s="3">
         <v>304400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>324600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>320400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>253800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>294100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>311900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>301500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>290100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>312500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>299500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>295100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>283600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>289800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>294700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>315700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>299000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>335500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>329700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,34 +1141,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>85200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>675100</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>675100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1148,11 +1188,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1535800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1586300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1654400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1524400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1489600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1479500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1208000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1412300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1436900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1312000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1390100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1351400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1363500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1331800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1359400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1325200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1314000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1247300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1348900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1350900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-39500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>61700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>73700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>37800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-614400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>43900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>46600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>45300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>41300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>41200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>50000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>71700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>56800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>96100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>46500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1480,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>89200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>31900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F21" s="3">
         <v>70200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>61900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>85500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>95900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>59800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-605200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>66700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>69200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>66500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>67300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>68200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>63600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>73100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>93600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>79400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>118000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>68600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>12300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>11500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>11200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>11400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F23" s="3">
         <v>44500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>35700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>60500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>70500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>33200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-632900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>29500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>36400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>37600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>37700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>30300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>40400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>61500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>47100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>85800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>36100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F24" s="3">
         <v>10700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-24100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>21200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>24400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F26" s="3">
         <v>33800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>48600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>53800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>24200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-608800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>23000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-33300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>29800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>27700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>28400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>28600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>21500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>31700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>30800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>61400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>27800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F27" s="3">
         <v>34000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>48800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>54100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-608600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-33100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>28000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>21500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>31700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>40200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>30800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>61400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>27800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,41 +2153,47 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>2700</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>77300</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-3200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-89200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-31900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F33" s="3">
         <v>34000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>48800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>54100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-608600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-33100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>28000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>31200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>109000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>40200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>30800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>61700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>24500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F35" s="3">
         <v>34000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>48800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>54100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-608600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-33100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>28000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>31200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>109000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>40200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>30800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>61700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>24500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44310</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44219</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44128</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44037</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43946</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43855</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43764</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43673</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>154200</v>
+      </c>
+      <c r="F41" s="3">
         <v>136900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>143200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>156000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>139500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>119600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>77900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>106200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>129600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>109800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>95600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>117400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>165500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>91500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>63000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>118000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>101500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>99800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>95000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>121700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2884,511 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>467100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>481800</v>
+      </c>
+      <c r="F43" s="3">
         <v>373500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>449200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>456100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>491700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>372300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>416500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>451300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>581300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>502700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>582100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>547200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>571200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>520600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>826900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>863500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>849200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>841300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>884800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>810200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>868700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>830100</v>
+      </c>
+      <c r="F44" s="3">
         <v>770400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>736800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>838000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>761900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>700500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>812200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>866300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>787400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>809600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>761000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>845800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>792500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>845500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>779800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>882000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>796400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>777400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>711900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>827100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>333300</v>
+      </c>
+      <c r="F45" s="3">
         <v>330700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>286700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>273100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>263100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>267700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>236100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>268900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>189200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>160600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>165600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>169200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>176000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>184000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>103000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>116300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>96600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>97700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>111900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>112300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1790400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1799400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1611500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1615900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1723200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1656300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1460100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1542800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1692700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1687400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1582700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1604400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1679700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1705300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1772700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1979800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1843600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1816100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1803600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1871200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>314300</v>
+      </c>
+      <c r="F47" s="3">
         <v>332000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>224000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>199400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>193800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>241600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>214900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>172200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>95900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>102200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>113100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>96900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>86500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>91000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>135200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>121700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>111200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>88400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>101500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>107500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>287500</v>
+      </c>
+      <c r="F48" s="3">
         <v>294700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>296700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>304500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>379600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>377600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>382700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>390000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>391200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>391200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>305800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>290300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>289600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>289700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>290600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>287400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>286700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>294800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>298500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>300400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>403600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>413600</v>
+      </c>
+      <c r="F49" s="3">
         <v>425400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>419600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>428200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>435700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>444200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>452200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1140300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1148800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1156500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1167400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1174500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1182500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1193100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1205400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1216400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1220900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1230700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1239000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1247500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F52" s="3">
         <v>87300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>195400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>195700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>123600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>122700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>122700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>118300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>112100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>78700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>79200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>80300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>72500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>67800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>69100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>66100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>65200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>65400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>67500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2863500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2902700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2750800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2751500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2851000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2789000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2646200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2715400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3513600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3435500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3349600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3269300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3320500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3344300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3287800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3471700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3674400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3528500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3495200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3507900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3594100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3794,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>715500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>773200</v>
+      </c>
+      <c r="F57" s="3">
         <v>593100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>609300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>677100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>690800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>549700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>862100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>802600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>766500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>625400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>648400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>688100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>662700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>588000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>610400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>654800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>634600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>536000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>616900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>547700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>143800</v>
+      </c>
+      <c r="F58" s="3">
         <v>142800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>153800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>208800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>111000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>136000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>95000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>25800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>51100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>80300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>110400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>92600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>253800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>106800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>177800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>73800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>212800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>276100</v>
+      </c>
+      <c r="F59" s="3">
         <v>332000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>326700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>315100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>271100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>293100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>212800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>303800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>294900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>223000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>203300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>193400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>225900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>218800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>205400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>191500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>209300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>188300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>213300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>228000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1132100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1193100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1067900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1089700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1072900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>978800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1074900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1201500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1061400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>874200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>875700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>932700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>968900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>917300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>908400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>950600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>902100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>903900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>988500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>488100</v>
+      </c>
+      <c r="F61" s="3">
         <v>487800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>487500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>487900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>588300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>588000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>587800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>587500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>663500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>718100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>725300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>732600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>738300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>743700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>922000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>931400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>991200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>998500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>998300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1001800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214500</v>
+        <v>198900</v>
       </c>
       <c r="E62" s="3">
         <v>209600</v>
       </c>
       <c r="F62" s="3">
+        <v>214500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>209600</v>
+      </c>
+      <c r="H62" s="3">
         <v>227600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>235100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>224700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>216200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>252700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>251900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>253900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>187700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>182500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>181300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>179600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>179500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>179900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>219700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>210200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>211300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>217800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1820300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1891600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1771500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1788300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1918100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1898200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1793600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1881200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2044100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1979600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1849300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1792000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1851400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1892300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1844600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2009900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2211400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2161500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2110700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2113500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2208000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>918300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>886900</v>
+      </c>
+      <c r="F72" s="3">
         <v>864200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>855700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>852200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>828700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>799600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>799700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1433200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1434800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1492800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1483500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1480100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1473400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1497800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1501000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1429700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1450200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1481200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1482600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1043200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="F76" s="3">
         <v>979300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>963200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>932900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>890800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>852600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>834100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1469400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1455800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1500400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1477300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1469100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1452000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1443100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1461800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1463000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1366900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1384500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1394400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1386100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44310</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44219</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44128</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44037</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43946</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43855</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43764</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43673</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F81" s="3">
         <v>34000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>48800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>54100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-608600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-33100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>28000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>31200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>109000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>40200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>30800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>61700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>24500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="E83" s="3">
         <v>20500</v>
       </c>
       <c r="F83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>19000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>20300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>20600</v>
       </c>
       <c r="L83" s="3">
         <v>20600</v>
       </c>
       <c r="M83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="O83" s="3">
         <v>20300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>20900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>20700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>21100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>20800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-295100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-313400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-125600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-181900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-193200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-229800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-74600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-154300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>30600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-45200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-28200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-123900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>205500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>138900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-37100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>123100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-46000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>175400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>42700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-26800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-15000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-9800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-9600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-8100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>338800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>262600</v>
+      </c>
+      <c r="F94" s="3">
         <v>345000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>194800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>221000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>261500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>133400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>172700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>137000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>92700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>96800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>63200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>131200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>138800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>7600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>14300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>2800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>4700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6250,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="E96" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="F96" s="3">
         <v>-25100</v>
       </c>
       <c r="G96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-25000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-25000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-25000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-25500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-24800</v>
       </c>
       <c r="O96" s="3">
         <v>-24700</v>
       </c>
       <c r="P96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-24600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-24700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-24800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-25200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-25000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-23300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-38000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-82700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-26600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-48700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>135300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-123200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-105500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-36200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-55700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-56800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-58900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-183800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-188200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>50100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-135200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>43200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-206200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-34000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>41600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-28200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-23400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>19800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-21800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-48100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>74000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>28500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>16500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-26800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>11400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44310</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44219</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44128</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44037</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43946</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43764</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43673</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1638800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1596600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1649200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1614900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1561800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1551300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1553200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1245800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1286500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1456200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1418700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1328700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1436700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1396700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1404800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1336300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1375200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1385700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1304100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1445000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1397400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1290500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1260000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1322700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1287900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1257400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1226700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1232800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>992000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>992400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1144300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1117300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1038600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1124200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1097200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1109700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1052700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1110800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1080500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1070000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1005100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1109500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1067700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>348300</v>
+      </c>
+      <c r="E10" s="3">
         <v>336600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>326500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>327000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>304400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>324600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>320400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>253800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>311900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>301500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>290100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>312500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>299500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>295100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>283600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>289800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>294700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>315700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>299000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>335500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>329700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,25 +1163,28 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>85200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1173,11 +1192,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>675100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1194,8 +1213,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1565900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1535800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1586300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1654400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1524400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1489600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1479500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1208000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1412300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1436900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1312000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1390100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1351400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1363500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1331800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1359400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1325200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1314000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1247300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1348900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1350900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E18" s="3">
         <v>60800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>61700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-614400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>56800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>96100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>46500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E20" s="3">
         <v>19300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>89200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E21" s="3">
         <v>100500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>85500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>95900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>59800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-605200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>69200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>73100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>79400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>118000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>68600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>11400</v>
       </c>
       <c r="X22" s="3">
         <v>11400</v>
       </c>
       <c r="Y22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="Z22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E23" s="3">
         <v>75200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>70500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-632900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>85800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>36100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E26" s="3">
         <v>56600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-608800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>61400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>27800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E27" s="3">
         <v>57000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>54100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-608600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>61400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2159,41 +2219,44 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>77300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-89200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E33" s="3">
         <v>57000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>54100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-608600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E35" s="3">
         <v>57000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>54100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-608600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44310</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44219</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44128</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44037</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43946</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43764</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43673</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E41" s="3">
         <v>165000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>156000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>117400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>165500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>118000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>101500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>99800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>95000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>121700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>447200</v>
+      </c>
+      <c r="E43" s="3">
         <v>467100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>481800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>373500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>449200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>456100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>491700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>372300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>416500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>451300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>581300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>502700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>582100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>547200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>571200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>520600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>826900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>863500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>849200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>841300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>884800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>810200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>785600</v>
+      </c>
+      <c r="E44" s="3">
         <v>868700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>830100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>770400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>736800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>838000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>761900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>812200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>866300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>787400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>809600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>761000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>845800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>792500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>845500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>779800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>882000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>796400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>777400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>711900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>827100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>304200</v>
+      </c>
+      <c r="E45" s="3">
         <v>289500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>333300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>330700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>286700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>273100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>263100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>267700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>236100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>268900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>189200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>160600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>165600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>176000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>184000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>96600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>97700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>111900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1790400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1799400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1611500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1615900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1723200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1656300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1460100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1542800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1692700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1687400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1582700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1604400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1679700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1705300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1641500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1772700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1979800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1843600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1816100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1803600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1871200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E47" s="3">
         <v>291900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>314300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>332000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>224000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>199400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>193800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>241600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>214900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>172200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>113100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>86500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>91000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>135200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>121700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>88400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>101500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>107500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E48" s="3">
         <v>286200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>294700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>296700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>304500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>379600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>377600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>382700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>390000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>391200</v>
       </c>
       <c r="N48" s="3">
         <v>391200</v>
       </c>
       <c r="O48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="P48" s="3">
         <v>305800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>289600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>289700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>290600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>287400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>286700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>294800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>298500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>300400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E49" s="3">
         <v>403600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>413600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>425400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>419600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>428200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>435700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>444200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>452200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1140300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1148800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1156500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1167400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1174500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1182500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1193100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1205400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1216400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1220900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1230700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1239000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1247500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E52" s="3">
         <v>91300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>195400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>195700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>123600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>122700</v>
       </c>
       <c r="K52" s="3">
         <v>122700</v>
       </c>
       <c r="L52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="M52" s="3">
         <v>118300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>112100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>72500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>66100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2741600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2863500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2902700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2750800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2751500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2851000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2789000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2646200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2715400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3513600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3435500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3349600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3269300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3320500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3344300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3287800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3471700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3674400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3528500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3495200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3507900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3594100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>681300</v>
+      </c>
+      <c r="E57" s="3">
         <v>715500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>773200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>593100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>609300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>677100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>690800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>549700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>862100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>802600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>766500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>625400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>648400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>688100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>662700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>588000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>610400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>654800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>634600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>536000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>616900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>547700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E58" s="3">
         <v>135000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>143800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>142800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>153800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>208800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>111000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>136000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>95000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>25800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>51100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>110400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>92600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>253800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>106800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>177800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>73800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>212800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E59" s="3">
         <v>281600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>276100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>332000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>326700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>315100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>271100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>293100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>303800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>294900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>223000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>193400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>225900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>218800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>205400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>191500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>209300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>188300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>213300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>228000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1132100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1193100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1067900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1089700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1072900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>978800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1074900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1201500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1061400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>874200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>875700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>932700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>968900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>917300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>908400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>950600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>902100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>903900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>988500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E61" s="3">
         <v>488400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>488100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>487800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>487500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>487900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>588300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>588000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>587800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>587500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>663500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>718100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>725300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>732600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>738300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>743700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>922000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>931400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>991200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>998500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>998300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1001800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E62" s="3">
         <v>198900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>209600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>214500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>209600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>227600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>235100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>224700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>216200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>252700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>251900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>253900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>187700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>182500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>181300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>179600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>179500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>179900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>219700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>210200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>211300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>217800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1820300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1891600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1771500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1788300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1918100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1898200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1793600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1881200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2044100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1979600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1849300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1792000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1851400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1892300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1844600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2009900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2211400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2161500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2110700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2113500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2208000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>921700</v>
+      </c>
+      <c r="E72" s="3">
         <v>918300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>886900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>864200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>855700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>852200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>828700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>799600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>799700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1433200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1434800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1492800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1483500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1480100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1473400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1469000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1497800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1501000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1429700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1450200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1481200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1482600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1041700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1043200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1011100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>979300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>963200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>932900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>890800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>852600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>834100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1469400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1455800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1477300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1469100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1452000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1443100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1461800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1463000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1366900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1384500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1394400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1386100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44310</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44219</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44128</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44037</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43946</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43764</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43673</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E81" s="3">
         <v>57000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>54100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-608600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5614,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E83" s="3">
         <v>20400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>20500</v>
       </c>
       <c r="F83" s="3">
         <v>20500</v>
@@ -5435,19 +5633,19 @@
         <v>20500</v>
       </c>
       <c r="H83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>20600</v>
       </c>
       <c r="M83" s="3">
         <v>20600</v>
@@ -5456,40 +5654,43 @@
         <v>20600</v>
       </c>
       <c r="O83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P83" s="3">
         <v>20300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>21000</v>
       </c>
       <c r="T83" s="3">
         <v>21000</v>
       </c>
       <c r="U83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="V83" s="3">
         <v>20700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>20800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-295100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-225600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-313400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-125600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-181900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-193200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-229800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-74600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-154300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-45200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-123900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>205500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>138900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-37100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>123100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-46000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>175400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E94" s="3">
         <v>338800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>262600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>345000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>194800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>221000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>261500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>133400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>172700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>137000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>92700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>96800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>63200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>131200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>138800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>14300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,19 +6484,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="E96" s="3">
         <v>-25300</v>
       </c>
       <c r="F96" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="G96" s="3">
         <v>-25100</v>
@@ -6273,58 +6506,61 @@
         <v>-25100</v>
       </c>
       <c r="I96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-25000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-24900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-25000</v>
       </c>
       <c r="M96" s="3">
         <v>-25000</v>
       </c>
       <c r="N96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-25500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-82700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>135300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-123200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-105500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-183800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-188200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>50100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-135200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>43200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-206200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E102" s="3">
         <v>10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>74000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-55000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-26800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44310</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44219</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44128</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44037</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43946</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43764</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43673</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1523300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1638800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1596600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1649200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1614900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1561800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1551300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1553200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1245800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1286500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1456200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1418700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1328700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1436700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1396700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1404800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1336300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1375200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1385700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1304100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1445000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1397400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1211100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1290500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1260000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1322700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1287900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1257400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1226700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1232800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>992000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>992400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1144300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1117300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1038600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1124200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1097200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1109700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1052700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1110800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1080500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1070000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1005100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1109500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1067700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E10" s="3">
         <v>348300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>336600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>326500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>327000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>304400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>324600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>320400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>253800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>311900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>301500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>290100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>312500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>299500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>295100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>283600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>289800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>294700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>315700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>299000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>335500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>329700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,28 +1183,31 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>85200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1195,11 +1215,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>675100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1216,8 +1236,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1565900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1535800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1586300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1654400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1524400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1489600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1479500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1208000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1412300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1436900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1312000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1390100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1351400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1363500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1331800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1359400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1325200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1314000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1247300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1348900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1350900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>72900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>60800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-614400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>56800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>96100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>46500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>14200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>89200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E21" s="3">
         <v>107600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>70200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>85500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>95900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-605200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>69200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>68200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>79400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>118000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>68600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>11400</v>
       </c>
       <c r="Y22" s="3">
         <v>11400</v>
       </c>
       <c r="Z22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E23" s="3">
         <v>82400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>35700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>60500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>70500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-632900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>85800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>36100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>63400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>47900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-608800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>61400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>27800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E27" s="3">
         <v>63900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>54100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-608600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>61400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>27800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2268,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2222,41 +2283,44 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>2700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>77300</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-89200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E33" s="3">
         <v>63900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-608600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>61700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E35" s="3">
         <v>63900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-608600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>61700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44310</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44219</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44128</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44037</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43946</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43764</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43673</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E41" s="3">
         <v>142000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>165000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>154200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>143200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>156000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>117400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>165500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>91500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>118000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>101500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>99800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>95000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>121700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>370300</v>
+      </c>
+      <c r="E43" s="3">
         <v>447200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>467100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>481800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>373500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>449200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>456100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>491700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>372300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>416500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>451300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>581300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>502700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>582100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>547200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>571200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>520600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>826900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>863500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>849200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>841300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>884800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>810200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>874800</v>
+      </c>
+      <c r="E44" s="3">
         <v>785600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>868700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>830100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>770400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>736800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>838000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>761900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>812200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>866300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>787400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>809600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>761000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>845800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>792500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>845500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>779800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>882000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>796400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>777400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>711900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>827100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E45" s="3">
         <v>304200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>289500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>333300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>330700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>286700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>273100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>263100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>267700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>236100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>268900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>189200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>160600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>165600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>176000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>184000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>103000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>96600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>97700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>111900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1679000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1790400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1799400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1611500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1615900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1723200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1656300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1460100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1542800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1692700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1687400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1582700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1604400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1679700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1705300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1641500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1772700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1979800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1843600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1816100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1803600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1871200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E47" s="3">
         <v>278000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>291900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>314300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>332000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>224000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>199400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>193800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>241600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>214900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>172200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>102200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>113100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>86500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>91000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>135200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>121700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>111200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>88400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>101500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>107500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E48" s="3">
         <v>283900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>286200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>287500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>294700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>296700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>304500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>379600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>377600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>382700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>390000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>391200</v>
       </c>
       <c r="O48" s="3">
         <v>391200</v>
       </c>
       <c r="P48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>305800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>290300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>289600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>289700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>290600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>287400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>286700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>294800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>298500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>300400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>383400</v>
+      </c>
+      <c r="E49" s="3">
         <v>393200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>403600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>413600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>425400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>419600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>428200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>435700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>444200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>452200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1140300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1148800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1156500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1167400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1174500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1182500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1193100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1205400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1216400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1220900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1230700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1239000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1247500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E52" s="3">
         <v>107500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>87300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>195400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>195700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>122700</v>
       </c>
       <c r="L52" s="3">
         <v>122700</v>
       </c>
       <c r="M52" s="3">
+        <v>122700</v>
+      </c>
+      <c r="N52" s="3">
         <v>118300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>112100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>117000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>72500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>66100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>67500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2758400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2741600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2863500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2902700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2750800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2751500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2851000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2789000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2646200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2715400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3513600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3435500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3349600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3269300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3320500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3344300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3287800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3471700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3674400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3528500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3495200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3507900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3594100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>655600</v>
+      </c>
+      <c r="E57" s="3">
         <v>681300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>715500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>773200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>593100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>609300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>677100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>690800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>549700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>862100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>802600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>766500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>625400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>648400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>688100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>662700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>588000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>610400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>654800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>634600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>536000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>616900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>547700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E58" s="3">
         <v>29000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>135000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>143800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>142800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>153800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>208800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>111000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>136000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>95000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>25800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>80300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>110400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>92600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>253800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>106800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>177800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>73800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>212800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E59" s="3">
         <v>305300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>281600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>276100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>332000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>326700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>315100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>271100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>293100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>303800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>294900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>223000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>193400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>225900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>218800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>205400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>191500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>209300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>188300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>213300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>228000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1043600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1015700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1132100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1193100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1067900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1089700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1072900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>978800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1074900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1201500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1061400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>874200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>875700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>932700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>968900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>917300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>908400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>950600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>902100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>903900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>988500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>488800</v>
+      </c>
+      <c r="E61" s="3">
         <v>488600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>488400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>488100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>487800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>487500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>487900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>588300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>588000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>587800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>587500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>663500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>718100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>725300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>732600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>738300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>743700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>922000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>931400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>991200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>998500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>998300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1001800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E62" s="3">
         <v>194800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>198900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>209600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>214500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>209600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>227600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>235100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>224700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>216200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>252700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>251900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>253900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>187700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>182500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>181300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>179600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>179500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>179900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>219700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>210200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>211300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>217800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1732500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1820300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1891600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1771500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1788300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1918100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1898200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1793600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1881200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2044100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1979600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1849300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1792000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1851400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1892300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1844600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2009900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2211400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2161500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2110700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2113500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2208000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>905600</v>
+      </c>
+      <c r="E72" s="3">
         <v>921700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>918300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>886900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>864200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>855700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>852200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>828700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>799600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>799700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1433200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1434800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1492800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1483500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1480100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1473400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1469000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1497800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1501000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1429700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1450200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1481200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1482600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1025900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1041700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1043200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1011100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>979300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>963200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>932900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>890800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>852600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>834100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1469400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1455800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1477300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1469100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1452000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1443100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1461800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1463000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1366900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1384500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1394400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1386100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44310</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44219</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44128</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44037</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43946</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43764</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43673</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E81" s="3">
         <v>63900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-608600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>61700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,19 +5813,20 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3">
         <v>20600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>20500</v>
       </c>
       <c r="G83" s="3">
         <v>20500</v>
@@ -5636,19 +5835,19 @@
         <v>20500</v>
       </c>
       <c r="I83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>20600</v>
       </c>
       <c r="N83" s="3">
         <v>20600</v>
@@ -5657,40 +5856,43 @@
         <v>20600</v>
       </c>
       <c r="P83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>20300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20900</v>
-      </c>
-      <c r="T83" s="3">
-        <v>21000</v>
       </c>
       <c r="U83" s="3">
         <v>21000</v>
       </c>
       <c r="V83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="W83" s="3">
         <v>20700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>20800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-302500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-146900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-295100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-225600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-313400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-125600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-181900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-193200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-229800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-74600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-154300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-45200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-123900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>205500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>138900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-37100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>123100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-46000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>175400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E94" s="3">
         <v>292600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>338800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>262600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>345000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>194800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>221000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>261500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>133400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>172700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>137000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>92700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>96800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>63200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>131200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>138800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>14300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>4700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,13 +6728,13 @@
         <v>-25400</v>
       </c>
       <c r="E96" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="F96" s="3">
         <v>-25300</v>
       </c>
       <c r="G96" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="H96" s="3">
         <v>-25100</v>
@@ -6509,58 +6743,61 @@
         <v>-25100</v>
       </c>
       <c r="J96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-24900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-25000</v>
       </c>
       <c r="N96" s="3">
         <v>-25000</v>
       </c>
       <c r="O96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-25500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-24800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-162800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-82700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>135300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-123200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-183800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-188200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>50100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-135200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>43200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-206200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-48100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>74000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-55000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43673</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1626200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1523300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1638800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1596600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1649200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1614900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1561800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1551300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1553200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1245800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1286500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1456200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1418700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1328700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1436700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1396700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1404800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1336300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1375200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1385700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1304100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1445000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1397400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1257900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1298100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1211100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1290500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1260000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1322700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1287900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1257400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1226700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1232800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>992000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>992400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1144300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1117300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1038600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1124200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1097200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1109700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1052700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1110800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1080500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1070000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1005100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1109500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1067700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>328100</v>
+      </c>
+      <c r="F10" s="3">
         <v>312200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>348300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>336600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>326500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>327000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>304400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>324600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>320400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>253800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>294100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>311900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>301500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>290100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>312500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>299500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>295100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>283600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>289800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>294700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>315700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>299000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>335500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>329700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,46 +1220,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>85200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>675100</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>675100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1239,11 +1279,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1524900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1566100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1488400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1565900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1535800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1586300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1654400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1524400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1489600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1479500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1208000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1412300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1436900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1312000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1390100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1351400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1363500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1331800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1359400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1325200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1314000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1247300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1348900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1350900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F18" s="3">
         <v>34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>72900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>60800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>62900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-39500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>37400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>61700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>73700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>37800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-614400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>43900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-18200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>16700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>46600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>45300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>41300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>41200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>50000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>71700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>56800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>96100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>46500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1615,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>14200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>19300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>89200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>31900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F21" s="3">
         <v>56800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>107600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>90100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>70200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>61900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>85500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>95900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>59800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-605200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>66700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>69200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>66500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>67300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>68200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>26600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>63600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>73100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>93600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>79400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>118000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>68600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>16600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>9200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>11200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>12300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>11500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>11200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>11400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>11400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F23" s="3">
         <v>31100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>82400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>75200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>64100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>44500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>35700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>60500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>70500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>33200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-632900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>29500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-26900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>39900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>36400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>37600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>37700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>30300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>40400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>61500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>47100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>85800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>36100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>18700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-24100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>9300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>9100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>8800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>21200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>16300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>8400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F26" s="3">
         <v>24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>63400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>56600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>47900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>33800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>28500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>48600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>53800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-608800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>23000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-33300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>29800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>27700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>28400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>28600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>21500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>31700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>40200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>30800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>61400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>27800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F27" s="3">
         <v>24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>63900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>57000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>48300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>34000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>28800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>54100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-608600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-33100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>28000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>28500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>28900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>21500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>31700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>40200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>30800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>61400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>27800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2393,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2286,41 +2408,47 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>2700</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>77300</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-14200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-19300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-89200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F33" s="3">
         <v>24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>63900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>57000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>48300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>34000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>54100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-608600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-33100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>28000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>31200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>28900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>20900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>109000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>40200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>30800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>61700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>24500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F35" s="3">
         <v>24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>63900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>57000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>48300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>34000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>54100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-608600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-33100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>28000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>31200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>28900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>20900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>109000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>40200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>30800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>61700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>24500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43673</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>140300</v>
+      </c>
+      <c r="F41" s="3">
         <v>149600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>142000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>165000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>154200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>136900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>143200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>156000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>139500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>119600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>77900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>106200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>129600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>109800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>95600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>117400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>165500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>91500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>63000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>118000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>101500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>99800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>95000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>121700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3255,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>422700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>454600</v>
+      </c>
+      <c r="F43" s="3">
         <v>370300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>447200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>467100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>481800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>373500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>449200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>456100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>491700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>372300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>416500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>451300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>581300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>502700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>582100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>547200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>571200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>520600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>826900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>863500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>849200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>841300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>884800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>810200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>939100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>877400</v>
+      </c>
+      <c r="F44" s="3">
         <v>874800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>785600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>868700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>830100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>770400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>736800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>838000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>761900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>700500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>812200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>866300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>787400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>809600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>761000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>845800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>792500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>845500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>779800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>882000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>796400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>777400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>711900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>827100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>353200</v>
+      </c>
+      <c r="F45" s="3">
         <v>311300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>304200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>289500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>333300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>330700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>286700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>273100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>263100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>267700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>236100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>268900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>189200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>160600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>165600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>169200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>176000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>184000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>103000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>116300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>96600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>97700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>111900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>112300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1844700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1825500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1706000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1679000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1790400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1799400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1611500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1615900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1723200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1656300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1460100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1542800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1692700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1687400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1582700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1604400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1679700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1705300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1641500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1772700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1979800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1843600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1816100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1803600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1871200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>272000</v>
+      </c>
+      <c r="F47" s="3">
         <v>275700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>278000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>291900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>314300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>332000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>224000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>199400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>193800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>241600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>214900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>172200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>95900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>102200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>113100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>96900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>86500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>91000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>135200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>121700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>111200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>88400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>101500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>107500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>282000</v>
+      </c>
+      <c r="F48" s="3">
         <v>290100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>283900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>286200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>287500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>294700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>296700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>304500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>379600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>377600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>382700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>390000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>391200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>391200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>305800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>290300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>289600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>289700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>290600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>287400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>286700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>294800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>298500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>300400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>372800</v>
+      </c>
+      <c r="F49" s="3">
         <v>383400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>393200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>403600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>413600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>425400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>419600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>428200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>435700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>444200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>452200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1140300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1148800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1156500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1167400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1174500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1182500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1193100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1205400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1216400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1220900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1230700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1239000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1247500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>128100</v>
+      </c>
+      <c r="F52" s="3">
         <v>103100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>107500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>91300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>87900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>87300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>195400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>195700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>123600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>122700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>122700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>118300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>112100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>117000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>78700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>79200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>80300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>72500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>67800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>69100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>66100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>65200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>65400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>67500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2942000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2880500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2758400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2741600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2863500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2902700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2750800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2751500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2851000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2789000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2646200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2715400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3513600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3435500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3349600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3269300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3320500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3344300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3287800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3471700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3674400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3528500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3495200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3507900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3594100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4317,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>702500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>714700</v>
+      </c>
+      <c r="F57" s="3">
         <v>655600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>681300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>715500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>773200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>593100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>609300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>677100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>690800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>549700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>862100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>802600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>766500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>625400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>648400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>688100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>662700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>588000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>610400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>654800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>634600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>536000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>616900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>547700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F58" s="3">
         <v>145000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>29000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>135000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>143800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>142800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>153800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>208800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>111000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>136000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>95000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>25800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>51100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>80300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>110400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>92600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>253800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>106800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>177800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>73800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>212800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>260300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>252100</v>
+      </c>
+      <c r="F59" s="3">
         <v>242900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>305300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>281600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>276100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>332000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>326700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>315100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>271100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>293100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>212800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>303800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>294900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>223000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>203300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>193400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>225900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>218800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>205400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>191500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>209300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>188300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>213300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>228000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1173700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1143800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1043600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1015700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1132100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1193100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1067900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1089700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1072900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>978800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1074900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1201500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1061400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>874200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>875700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>932700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>968900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>917300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>908400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1100100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>950600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>902100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>903900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>988500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>451900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>485500</v>
+      </c>
+      <c r="F61" s="3">
         <v>488800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>488600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>488400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>488100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>487800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>487500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>487900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>588300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>588000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>587800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>587500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>663500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>718100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>725300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>732600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>738300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>743700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>922000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>931400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>991200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>998500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>998300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1001800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F62" s="3">
         <v>199000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>194800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>198900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>209600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>214500</v>
       </c>
       <c r="I62" s="3">
         <v>209600</v>
       </c>
       <c r="J62" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>209600</v>
+      </c>
+      <c r="L62" s="3">
         <v>227600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>235100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>224700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>216200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>252700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>251900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>253900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>187700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>182500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>181300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>179600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>179500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>179900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>219700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>210200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>211300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>217800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1840700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1839600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1732500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1820300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1891600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1771500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1788300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1918100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1898200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1793600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1881200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2044100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1979600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1849300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1792000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1851400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1892300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1844600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2009900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2211400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2161500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2110700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2113500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2208000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>962900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>934600</v>
+      </c>
+      <c r="F72" s="3">
         <v>905600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>921700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>918300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>886900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>864200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>855700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>852200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>828700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>799600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>799700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1433200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1434800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1492800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1483500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1480100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1473400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1469000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1497800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1501000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1429700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1450200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1481200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1482600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1025900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1041700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1043200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1011100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>979300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>963200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>932900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>890800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>852600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>834100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1469400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1455800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1500400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1477300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1469100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1452000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1443100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1461800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1463000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1366900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1384500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1394400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1386100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43673</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F81" s="3">
         <v>24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>63900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>57000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>48300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>34000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>54100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-608600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-33100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>28000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>31200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>28900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>20900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>109000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>40200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>30800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>61700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>24500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6210,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F83" s="3">
         <v>20200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>20500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>20500</v>
       </c>
       <c r="I83" s="3">
         <v>20500</v>
       </c>
       <c r="J83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>20600</v>
       </c>
       <c r="P83" s="3">
         <v>20600</v>
       </c>
       <c r="Q83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="S83" s="3">
         <v>20300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>20500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>21100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>20900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>20700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>21100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>20800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>21000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-217600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-302500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-146900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-295100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-225600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-313400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-125600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-181900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-193200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-229800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-74600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-154300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-28200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-123900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>205500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>138900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-37100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>123100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-46000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>175400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>42700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-14000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-26800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-10200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-9800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>209500</v>
+      </c>
+      <c r="F94" s="3">
         <v>238400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>292600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>338800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>262600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>345000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>194800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>221000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>261500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>133400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>172700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>137000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>92700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>96800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>63200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>131200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>138800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>7600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>14300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>5500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>2800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>4700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7185,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-25400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-25400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-25300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-25300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-25100</v>
       </c>
       <c r="J96" s="3">
         <v>-25100</v>
       </c>
       <c r="K96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-25000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-24900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-25000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-25000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-25500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-24800</v>
       </c>
       <c r="S96" s="3">
         <v>-24700</v>
       </c>
       <c r="T96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="V96" s="3">
         <v>-25300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-24600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-24700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-24800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-23300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F100" s="3">
         <v>73400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-162800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-20400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-38000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-82700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>135300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-123200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-105500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-55700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-56800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-58900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-183800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-188200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>50100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-135200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>43200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-206200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>2100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-12700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>19900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>41600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-28200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>19800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-21800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-48100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>74000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>28500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-55000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>16500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>11400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>20400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PDCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,397 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43673</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1576700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1721200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1626200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1523300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1638800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1596600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1649200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1614900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1561800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1551300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1553200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1245800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1286500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1456200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1418700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1328700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1436700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1396700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1404800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1336300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1400600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1375200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1385700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1304100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1445000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1397400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1418200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1257700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1331400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1257900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1298100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1211100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1290500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1260000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1322700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1287900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1257400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1226700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1232800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>992000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>992400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1144300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1117300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1038600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1124200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1097200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1109700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1052700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1110800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1080500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1070000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1005100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1109500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1067700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>389800</v>
+      </c>
+      <c r="F10" s="3">
         <v>343000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>328100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>312200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>348300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>336600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>326500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>304400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>324600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>320400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>253800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>294100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>311900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>301500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>290100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>312500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>299500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>295100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>283600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>289800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>294700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>315700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>299000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>335500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>329700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>318900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,38 +1279,38 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>85200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>675100</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>675100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1285,11 +1324,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1524900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1566100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1488400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1565900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1535800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1586300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1654400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1524400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1489600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1479500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1208000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1412300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1436900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1312000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1390100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1351400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1363500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1331800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1359400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1325200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1314000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1247300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1348900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1350900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1338400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>105200</v>
+      </c>
+      <c r="F18" s="3">
         <v>76000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>60100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>34900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>72900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>60800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>62900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-39500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>37400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>61700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>73700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>37800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-614400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>43900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-18200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>46600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>45300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>41300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>41200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>50000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>71700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>56800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>96100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>46500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>79800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1682,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>18200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>14200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>19300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>89200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>31900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>5900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>131300</v>
+      </c>
+      <c r="F21" s="3">
         <v>100200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>99200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>56800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>107600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>90100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>70200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>61900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>85500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>95900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>59800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-605200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>66700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>69200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>66500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>67300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>68200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>26600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>63600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>73100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>93600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>79400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>118000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>68600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F22" s="3">
         <v>9700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>16600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>9500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>12300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>11800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>11500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>11200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>11400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>11400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>99100</v>
+      </c>
+      <c r="F23" s="3">
         <v>69300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>70800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>31100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>82400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>75200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>64100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>35700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>60500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>70500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>33200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-632900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>29500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-26900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>39900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>36400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>37600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>37700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>30300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>40400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>61500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>47100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>85800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>36100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F24" s="3">
         <v>15400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>17100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>18700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>16200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-24100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>9100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>8800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>8700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>21200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>16300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>24400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>8400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F26" s="3">
         <v>53800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>53600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>63400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>56600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>47900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>33800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>28500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>48600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>53800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>24200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-608800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>23000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-33300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>29800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>27700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>28400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>28600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>21500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>31700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>40200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>30800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>61400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>27800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F27" s="3">
         <v>53900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>54100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>63900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>57000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>48300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>28800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>48800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>54100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>24400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-608600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-33100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>28000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>28500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>28900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>21500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>31700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>40200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>30800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>61400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>27800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2399,11 +2520,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2414,41 +2535,47 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>2700</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>77300</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-18200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-14200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-19300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-89200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-31900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-5900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F33" s="3">
         <v>53900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>54100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>63900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>57000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>48300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>28800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>48800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>54100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>24400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-608600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-33100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>30000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>28000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>31200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>28900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>20900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>109000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>40200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>30800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>61700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>24500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F35" s="3">
         <v>53900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>54100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>63900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>57000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>48300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>28800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>48800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>54100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>24400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-608600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-33100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>30000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>28000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>31200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>28900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>20900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>109000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>40200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>30800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>61700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>24500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43673</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>159700</v>
+      </c>
+      <c r="F41" s="3">
         <v>147300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>140300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>149600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>142000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>165000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>154200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>136900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>143200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>156000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>139500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>119600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>77900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>106200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>129600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>109800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>95600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>117400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>165500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>91500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>63000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>118000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>101500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>99800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>95000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>121700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,589 +3440,637 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>408900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>477400</v>
+      </c>
+      <c r="F43" s="3">
         <v>422700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>454600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>370300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>447200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>467100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>481800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>373500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>449200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>456100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>491700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>372300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>416500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>451300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>581300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>502700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>582100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>547200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>571200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>520600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>826900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>863500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>849200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>841300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>884800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>810200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>822700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>912700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>795100</v>
+      </c>
+      <c r="F44" s="3">
         <v>939100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>877400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>874800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>785600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>868700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>830100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>770400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>736800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>838000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>761900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>700500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>812200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>866300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>787400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>809600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>761000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>845800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>792500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>845500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>779800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>882000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>796400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>777400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>711900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>827100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>795500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>351000</v>
+      </c>
+      <c r="F45" s="3">
         <v>335600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>353200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>311300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>304200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>289500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>333300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>330700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>286700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>273100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>263100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>267700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>236100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>268900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>189200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>160600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>165600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>169200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>176000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>184000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>103000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>116300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>96600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>97700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>111900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>112300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1772100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1783100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1844700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1825500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1706000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1679000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1790400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1799400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1611500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1615900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1723200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1656300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1460100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1542800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1692700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1687400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1582700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1604400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1679700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1705300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1641500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1772700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1979800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1843600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1816100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1803600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1871200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1832800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F47" s="3">
         <v>290100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>272000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>275700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>278000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>291900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>314300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>332000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>224000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>199400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>193800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>241600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>214900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>172200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>95900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>102200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>113100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>96900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>86500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>91000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>135200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>121700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>111200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>88400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>101500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>107500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>305200</v>
+      </c>
+      <c r="F48" s="3">
         <v>288600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>282000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>290100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>283900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>286200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>287500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>294700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>296700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>304500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>379600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>377600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>382700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>390000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>391200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>391200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>305800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>290300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>289600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>289700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>290600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>287400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>286700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>294800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>298500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>300400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>303300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>379200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>388300</v>
+      </c>
+      <c r="F49" s="3">
         <v>397800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>372800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>383400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>393200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>403600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>413600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>425400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>419600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>428200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>435700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>444200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>452200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1140300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1148800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1156500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1167400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1174500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1182500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1193100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1205400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1216400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1220900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1230700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1239000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1247500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1292400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>120700</v>
+      </c>
+      <c r="F52" s="3">
         <v>120800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>128100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>103100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>107500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>91300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>87900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>87300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>195400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>195700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>123600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>122700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>122700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>118300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>112100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>117000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>78700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>79200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>80300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>72500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>67800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>69100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>66100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>65200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>65400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>67500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>64700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2883600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2879100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2942000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2880500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2758400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2741600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2863500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2902700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2750800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2751500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2851000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2789000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2646200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2715400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3513600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3435500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3349600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3269300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3320500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3344300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3287800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3471700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3674400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3528500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3495200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3507900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>3594100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>3590400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>717400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>725000</v>
+      </c>
+      <c r="F57" s="3">
         <v>702500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>714700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>655600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>681300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>715500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>773200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>593100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>609300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>677100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>690800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>549700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>862100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>802600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>766500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>625400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>648400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>688100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>662700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>588000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>610400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>654800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>634600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>536000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>616900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>547700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>545400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F58" s="3">
         <v>211000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>177000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>145000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>135000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>143800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>142800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>153800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>208800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>111000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>136000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>95000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>25800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>51100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>80300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>110400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>92600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>253800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>106800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>177800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>73800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>212800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>279300</v>
+      </c>
+      <c r="F59" s="3">
         <v>260300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>252100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>242900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>305300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>281600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>276100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>332000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>326700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>315100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>271100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>293100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>212800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>303800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>294900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>223000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>203300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>193400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>225900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>218800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>205400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>191500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>209300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>188300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>213300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>228000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>217700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1085300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1173700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1143800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1043600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1015700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1132100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1193100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1067900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1089700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1072900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>978800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1074900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1201500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1061400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>874200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>875700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>932700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>968900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>917300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>908400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>950600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>902100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>903900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>988500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>946700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>450600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>451200</v>
+      </c>
+      <c r="F61" s="3">
         <v>451900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>485500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>488800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>488600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>488400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>488100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>487800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>487500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>487900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>588300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>588000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>587800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>587500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>663500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>718100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>725300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>732600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>738300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>743700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>922000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>931400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>991200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>998500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>998300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1001800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1010200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F62" s="3">
         <v>214000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>209000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>199000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>194800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>198900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>209600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>214500</v>
       </c>
       <c r="K62" s="3">
         <v>209600</v>
       </c>
       <c r="L62" s="3">
+        <v>214500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>209600</v>
+      </c>
+      <c r="N62" s="3">
         <v>227600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>235100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>224700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>216200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>252700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>251900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>253900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>187700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>182500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>181300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>179600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>179500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>179900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>219700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>210200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>211300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>217800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1761600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1840700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1839600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1732500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1820300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1891600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1771500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1788300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1918100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1898200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1793600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1881200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2044100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1979600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1849300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1792000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1851400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1892300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1844600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2009900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2211400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2161500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2110700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2113500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2208000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2184300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>948700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>972100</v>
+      </c>
+      <c r="F72" s="3">
         <v>962900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>934600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>905600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>921700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>918300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>886900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>864200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>855700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>852200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>828700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>799600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>799700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1433200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1434800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1492800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1483500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1480100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1473400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1469000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1497800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1501000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1429700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1450200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1481200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1482600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1517800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1110300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1117500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1101300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1040900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1025900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1041700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1043200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1011100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>979300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>963200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>932900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>890800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>852600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>834100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1469400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1455800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1500400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1477300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1469100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1452000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1443100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1461800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1463000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1366900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1384500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1394400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1386100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1406100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43673</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F81" s="3">
         <v>53900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>54100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>63900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>57000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>48300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>28800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>48800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>54100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>24400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-608600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-33100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>30000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>28000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>31200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>28900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>20900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>109000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>40200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>30800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>61700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>24500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F83" s="3">
         <v>21200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>20600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>20500</v>
       </c>
       <c r="K83" s="3">
         <v>20500</v>
       </c>
       <c r="L83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>20300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>20600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>20600</v>
       </c>
       <c r="R83" s="3">
         <v>20600</v>
       </c>
       <c r="S83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="T83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="U83" s="3">
         <v>20300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>20500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>20900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>21000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>21000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>20700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>21100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>20800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>21000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-253400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-208000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-217600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-302500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-146900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-295100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-225600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-313400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-125600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-181900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-193200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-229800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-74600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-154300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>30600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-45200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-28200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-123900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>205500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>138900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-37100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>123100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-46000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>175400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>42700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>17500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-14000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-26800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-11800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-10200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-15000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>234300</v>
+      </c>
+      <c r="F94" s="3">
         <v>219400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>209500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>238400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>292600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>338800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>262600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>345000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>194800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>221000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>261500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>133400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>172700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>137000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>92700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>96800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>63200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>131200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>138800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>7600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>14300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>5500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>2800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>4700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7652,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-25200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-25300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-25400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-25400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-25300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-25300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-25100</v>
       </c>
       <c r="L96" s="3">
         <v>-25100</v>
       </c>
       <c r="M96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-25000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-24900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-25000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-25500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-24800</v>
       </c>
       <c r="U96" s="3">
         <v>-24700</v>
       </c>
       <c r="V96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="X96" s="3">
         <v>-25300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-24600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-24700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-24800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-25200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-23300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-23500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-194400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>73400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-162800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-32000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-20400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-38000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-82700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-26600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-48700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>135300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-123200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-105500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-36200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-55700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-56800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-58900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-183800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-188200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>50100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-135200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>43200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-206200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>5200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>3900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>2100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>1300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>19900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>41600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>19800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>14100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-21800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-48100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>74000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>28500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-55000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>16500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-26800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>11400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>20400</v>
       </c>
     </row>
